--- a/biology/Zoologie/Callawayasaurus/Callawayasaurus.xlsx
+++ b/biology/Zoologie/Callawayasaurus/Callawayasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callawayasaurus colombiensis
 Callawayasaurus est un genre fossile de plésiosaure de la famille des Elasmosauridae. Il n'est représenté que par son espèce type, Callawayasaurus colombiensis. En 2023 selon Paleobiology Database, le genre est resté monotypique.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier crâne découvert mesure 35 cm de long, ce qui permet d'estimer la taille de l'animal à huit mètres de longueur pour un poids de deux tonnes.
 </t>
@@ -543,14 +557,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été découvert en 1962 par Samuel Paul Welles et a été décrit comme étant Alzadasaurus colombiensis avant qu'il ne soit attribué à un nouveau genre par Kenneth Carpenter en 1999[1],[2].
-Le nom valide complet (avec auteur) de ce taxon est Callawayasaurus Carpenter, 1999[3],[4],[5].
-Étymologie
-Le nom générique, Callawayasaurus, a été donné en l'honneur du paléontologue Jack M. Callaway, rédacteur en chef des anciens reptiles marins[réf. nécessaire] qui, comme le dit Carpenter, a fait beaucoup d'effort pour améliorer notre compréhension de ceux-ci. Le suffixe « saurus » provient du grec « sauros » (de σαυρος), ce qui signifie « lézard » ou « reptile ».
-Cladogramme
-Le cladogramme ci-dessous ne montre que les relations internes au sein des Elasmosauridae, sur la base des résultats d'O'Gorman et al. (2015) qui ont mené l'analyse phylogénétique la plus complète à ce jour (2022) en se concentrant sur les élasmosauridés[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été découvert en 1962 par Samuel Paul Welles et a été décrit comme étant Alzadasaurus colombiensis avant qu'il ne soit attribué à un nouveau genre par Kenneth Carpenter en 1999,.
+Le nom valide complet (avec auteur) de ce taxon est Callawayasaurus Carpenter, 1999.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callawayasaurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callawayasaurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Callawayasaurus, a été donné en l'honneur du paléontologue Jack M. Callaway, rédacteur en chef des anciens reptiles marins[réf. nécessaire] qui, comme le dit Carpenter, a fait beaucoup d'effort pour améliorer notre compréhension de ceux-ci. Le suffixe « saurus » provient du grec « sauros » (de σαυρος), ce qui signifie « lézard » ou « reptile ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callawayasaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callawayasaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous ne montre que les relations internes au sein des Elasmosauridae, sur la base des résultats d'O'Gorman et al. (2015) qui ont mené l'analyse phylogénétique la plus complète à ce jour (2022) en se concentrant sur les élasmosauridés.
 </t>
         </is>
       </c>
